--- a/需求收集.xlsx
+++ b/需求收集.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/granthe/Desktop/Grant/1智能硬件项目/0-系统需求收集/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/granthe/Desktop/Grant/1智能硬件项目/0-系统需求收集/ProductPrototype/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="138">
   <si>
     <t>描述</t>
     <rPh sb="0" eb="1">
@@ -3702,6 +3702,190 @@
     </rPh>
     <rPh sb="9" eb="10">
       <t>wwwf</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课堂快速答题设备。</t>
+    <rPh sb="0" eb="1">
+      <t>yji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>nng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>twj</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ymtl</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在全日制课堂上，老师出一些选择题给学生们解答。但是目前课堂只能让有限的几个学生进行答题，老师想通过硬件设备实现课堂学生全员答题，然后快速对学生知识的掌握情况进行分析。</t>
+    <rPh sb="0" eb="1">
+      <t>d</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>wgj</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>rmhj</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yji</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>h</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ftjg</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>bm</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ggh</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>tfrc</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>jghm</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>xwg</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>iptg</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>wu</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>qet</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>wjjg</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>hhue</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>yji</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>kwc</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>yh</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>deb</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>r</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>mtwh</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>iptg</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>fjtf</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>twj</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ftjg</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>shn</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>cef</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>dgwr</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ymtl</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>pugm</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>yji</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>iptg</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>wgkm</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>twj</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>qdrg</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>nng</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>cf</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>iptg</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>tdy</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>r</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>ipr</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>ngu</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>fjtf</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>wvs</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新产品</t>
+    <rPh sb="0" eb="1">
+      <t>usr</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>utkk</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现课堂快速答题功能。</t>
+    <rPh sb="0" eb="1">
+      <t>pugm</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yji</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>nng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>twj</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>alc</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4133,10 +4317,10 @@
   <dimension ref="A2:Z67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomRight" activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5210,14 +5394,26 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
+    <row r="43" spans="1:26" ht="96" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
+      <c r="G43" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.2">

--- a/需求收集.xlsx
+++ b/需求收集.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="141">
   <si>
     <t>描述</t>
     <rPh sb="0" eb="1">
@@ -3886,6 +3886,108 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>alc</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为考勤机增加连续按时签到播报通知机制。</t>
+    <rPh sb="0" eb="1">
+      <t>yl</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>fta</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>sm</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fulk</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>lpxf</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>rpj</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>twg</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>rtr</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>cet</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>smr</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高用户依赖性。</t>
+    <rPh sb="0" eb="1">
+      <t>rjy</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>etyn</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wygk</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ntg</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学员如果连续多天按时到校时，考勤机应该向家长和学生进行反馈。</t>
+    <rPh sb="0" eb="1">
+      <t>ipkm</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>vkj</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>lpxf</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>qqg</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>rpj</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gcs</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>jf</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>fta</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>sm</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>yiyy</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>tm</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>pet</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>t</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>iptg</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>fjtf</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>rcqn</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4317,10 +4419,10 @@
   <dimension ref="A2:Z67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F43" sqref="F43"/>
+      <selection pane="bottomRight" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5416,14 +5518,28 @@
       </c>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
+    <row r="44" spans="1:26" ht="32" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="I44" s="1"/>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.2">

--- a/需求收集.xlsx
+++ b/需求收集.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="需求" sheetId="1" r:id="rId1"/>
@@ -31,14 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="141">
-  <si>
-    <t>描述</t>
-    <rPh sb="0" eb="1">
-      <t>ras</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="142">
   <si>
     <t>校区下拉优化</t>
     <rPh sb="0" eb="1">
@@ -1352,13 +1345,6 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>yfaj</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <rPh sb="0" eb="1">
-      <t>j</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3394,26 +3380,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>计划10月</t>
-    <rPh sb="0" eb="1">
-      <t>yfaj</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>eee</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划10 月</t>
-    <rPh sb="0" eb="1">
-      <t>yfaj</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>eee</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>增加RFID设备</t>
     <rPh sb="0" eb="1">
       <t>fulk</t>
@@ -3988,6 +3954,170 @@
     </rPh>
     <rPh sb="27" eb="28">
       <t>rcqn</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背影描述</t>
+    <rPh sb="0" eb="1">
+      <t>uxjy</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ras</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闸机本地用户列表中加入学员卡。</t>
+    <rPh sb="0" eb="1">
+      <t>ulk</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>sm</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>sgfb</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>etyn</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>gqg</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>kh</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>lkt</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ipkm</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>hhu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在网络比较差的情况,本地没有保存用户权限的话会导致闸机响应缓慢。因此为闸机增加学员卡保存到本地。</t>
+    <rPh sb="0" eb="1">
+      <t>d</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>mqx</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xxl</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>uda</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>r</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ngu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>sgfb</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>imde</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>wkdh</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>etyn</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>scb</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>r</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ytd</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>wfc</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>nfg</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ulk</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>sm</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ktyi</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>xen</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ldy</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>hx</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>yl</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ulk</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>sm</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>fulk</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ipkm</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>hhu</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>wkdh</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>gc</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>sgfb</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高闸机的使用体验。</t>
+    <rPh sb="0" eb="1">
+      <t>rjy</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ulk</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>sm</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>r</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wget</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wsc</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <rPh sb="0" eb="1">
+      <t>pfd</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4419,10 +4549,10 @@
   <dimension ref="A2:Z67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D44" sqref="D44"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4441,28 +4571,28 @@
     <row r="2" spans="1:26" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="13"/>
       <c r="B2" s="14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F2" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="G2" s="16" t="s">
-        <v>102</v>
-      </c>
       <c r="H2" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
@@ -4484,45 +4614,47 @@
     </row>
     <row r="3" spans="1:26" ht="80" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="8"/>
+        <v>56</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>56</v>
+      </c>
       <c r="E3" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>55</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
       <c r="B4" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8" t="s">
-        <v>55</v>
+        <v>141</v>
       </c>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
@@ -4544,45 +4676,45 @@
     </row>
     <row r="5" spans="1:26" ht="32" x14ac:dyDescent="0.2">
       <c r="B5" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8" t="s">
-        <v>55</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:26" s="9" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
       <c r="B6" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>55</v>
+        <v>141</v>
       </c>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
@@ -4604,7 +4736,7 @@
     </row>
     <row r="7" spans="1:26" ht="32" x14ac:dyDescent="0.2">
       <c r="B7" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -4613,228 +4745,232 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8" t="s">
-        <v>55</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="64" x14ac:dyDescent="0.2">
       <c r="B8" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>121</v>
-      </c>
       <c r="E8" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>55</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="32" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>55</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="48" x14ac:dyDescent="0.2">
       <c r="B10" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="64" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:26" ht="48" x14ac:dyDescent="0.2">
       <c r="B11" s="17" t="s">
-        <v>131</v>
+        <v>3</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>132</v>
+        <v>43</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>14</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" s="17"/>
-    </row>
-    <row r="12" spans="1:26" ht="32" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="48" x14ac:dyDescent="0.2">
       <c r="B12" s="17" t="s">
-        <v>129</v>
+        <v>8</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="D12" s="17"/>
+        <v>46</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>24</v>
+      </c>
       <c r="E12" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="17"/>
+        <v>36</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="13" spans="1:26" ht="48" x14ac:dyDescent="0.2">
       <c r="B13" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="17" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="48" x14ac:dyDescent="0.2">
-      <c r="B14" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="17" t="s">
+      <c r="F14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="32" x14ac:dyDescent="0.2">
+      <c r="B15" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="I14" s="17" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="48" x14ac:dyDescent="0.2">
-      <c r="B15" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="17" t="s">
+      <c r="H15" s="17"/>
+      <c r="I15" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" s="10" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A16" s="12"/>
+      <c r="B16" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="17" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
-      <c r="B16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>117</v>
+      <c r="D16" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>115</v>
       </c>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
@@ -4854,268 +4990,272 @@
       <c r="Y16" s="12"/>
       <c r="Z16" s="12"/>
     </row>
-    <row r="17" spans="1:26" ht="32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B17" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="32" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="48" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" ht="64" x14ac:dyDescent="0.2">
+      <c r="B21" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="17" t="s">
+      <c r="F21" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21" s="17"/>
+    </row>
+    <row r="22" spans="1:26" ht="32" x14ac:dyDescent="0.2">
+      <c r="B22" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="G22" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" ht="80" x14ac:dyDescent="0.2">
-      <c r="B18" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="I18" s="17" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B19" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="I19" s="17" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B20" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" ht="32" x14ac:dyDescent="0.2">
-      <c r="B21" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" ht="48" x14ac:dyDescent="0.2">
-      <c r="B22" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="H22" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="17"/>
+    </row>
+    <row r="23" spans="1:26" ht="48" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:26" ht="64" x14ac:dyDescent="0.2">
-      <c r="B23" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="64" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:26" ht="64" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:26" ht="64" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:26" ht="32" x14ac:dyDescent="0.2">
-      <c r="B26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:26" ht="32" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="1:26" ht="27" x14ac:dyDescent="0.2">
-      <c r="B27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:26" s="10" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" s="10" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A28" s="12"/>
       <c r="B28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>45</v>
+        <v>31</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G28" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="H28" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="12"/>
@@ -5136,104 +5276,102 @@
       <c r="Y28" s="12"/>
       <c r="Z28" s="12"/>
     </row>
-    <row r="29" spans="1:26" ht="48" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="32" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D29" s="1"/>
-      <c r="E29" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:26" ht="32" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="48" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:26" ht="32" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B31" s="1" t="s">
+      <c r="D31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:26" ht="64" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>49</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" s="9" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A33" s="12"/>
       <c r="B33" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="D33" s="1"/>
-      <c r="E33" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>37</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G33" s="1"/>
       <c r="H33" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="12"/>
@@ -5254,22 +5392,24 @@
       <c r="Y33" s="12"/>
       <c r="Z33" s="12"/>
     </row>
-    <row r="34" spans="1:26" s="9" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12"/>
       <c r="B34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>111</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="E34" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="F34" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G34" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="H34" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="12"/>
@@ -5290,38 +5430,40 @@
       <c r="Y34" s="12"/>
       <c r="Z34" s="12"/>
     </row>
-    <row r="35" spans="1:26" ht="64" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" ht="32" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="F35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G35" s="1"/>
       <c r="H35" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:26" s="9" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" s="9" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A36" s="12"/>
       <c r="B36" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C36" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="D36" s="1"/>
-      <c r="E36" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
+      <c r="G36" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="H36" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="12"/>
@@ -5342,19 +5484,21 @@
       <c r="Y36" s="12"/>
       <c r="Z36" s="12"/>
     </row>
-    <row r="37" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A37" s="12"/>
       <c r="B37" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>53</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+      <c r="E37" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
+      <c r="H37" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="I37" s="1"/>
       <c r="J37" s="12"/>
       <c r="K37" s="12"/>
@@ -5374,25 +5518,19 @@
       <c r="Y37" s="12"/>
       <c r="Z37" s="12"/>
     </row>
-    <row r="38" spans="1:26" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="12"/>
       <c r="B38" s="1" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="D38" s="1"/>
-      <c r="E38" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="12"/>
       <c r="K38" s="12"/>
@@ -5415,20 +5553,22 @@
     <row r="39" spans="1:26" s="10" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="12"/>
       <c r="B39" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
+      <c r="H39" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="I39" s="1"/>
       <c r="J39" s="12"/>
       <c r="K39" s="12"/>
@@ -5450,106 +5590,114 @@
     </row>
     <row r="40" spans="1:26" ht="32" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C40" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="G40" s="1"/>
-      <c r="H40" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
     <row r="41" spans="1:26" ht="32" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" ht="32" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
+      <c r="E42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
+      <c r="H42" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:26" ht="96" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:26" ht="96" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:26" ht="32" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C45" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="1:26" ht="32" x14ac:dyDescent="0.2">
-      <c r="B44" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
+      <c r="E45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="I45" s="1"/>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.2">
@@ -5774,8 +5922,8 @@
     </row>
   </sheetData>
   <autoFilter ref="B2:I27">
-    <sortState ref="B3:I39">
-      <sortCondition descending="1" ref="I2:I39"/>
+    <sortState ref="B3:I45">
+      <sortCondition descending="1" ref="I2:I45"/>
     </sortState>
   </autoFilter>
   <sortState ref="B2:H20">
@@ -5805,71 +5953,71 @@
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="2:8" ht="64" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E2" s="7">
         <v>43332</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="64" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" s="7">
         <v>43332</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">

--- a/需求收集.xlsx
+++ b/需求收集.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="需求" sheetId="1" r:id="rId1"/>
-    <sheet name="问题记录" sheetId="2" r:id="rId2"/>
+    <sheet name="12月计划" sheetId="3" r:id="rId2"/>
+    <sheet name="问题记录" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">需求!$B$2:$I$27</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="142">
   <si>
     <t>校区下拉优化</t>
     <rPh sb="0" eb="1">
@@ -4548,11 +4549,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Z67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5936,6 +5937,319 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="41.83203125" customWidth="1"/>
+    <col min="3" max="3" width="43.1640625" customWidth="1"/>
+    <col min="4" max="4" width="42.1640625" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="B2" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="B3" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="B4" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="B5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="B6" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="B8" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="64" x14ac:dyDescent="0.2">
+      <c r="B9" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/需求收集.xlsx
+++ b/需求收集.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="需求" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="149">
   <si>
     <t>校区下拉优化</t>
     <rPh sb="0" eb="1">
@@ -4122,12 +4122,163 @@
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>场地预订信息在电子班牌上进行显示。</t>
+    <rPh sb="0" eb="1">
+      <t>fnf</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cby</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wyth</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>d</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jnb</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>gyt</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>thgf</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>h</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>fjtf</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>jof</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成人员</t>
+    <rPh sb="0" eb="1">
+      <t>pfd</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wwkm</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高闸机的使用体验和响应速度。</t>
+    <rPh sb="0" eb="1">
+      <t>rjy</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ulk</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>sm</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>r</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wget</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wsc</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>t</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ktyi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>gky</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闸机和门禁增加离线重启逻辑。</t>
+    <rPh sb="0" eb="1">
+      <t>ulk</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>sm</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>t</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>uys</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>fulk</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ybx</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>tgyn</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>lql</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加校车智能打卡机。</t>
+    <rPh sb="0" eb="1">
+      <t>fulk</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>sul</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tdce</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>rshh</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>sm</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闸机、门禁</t>
+    <rPh sb="0" eb="1">
+      <t>ulk</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>sm</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>uys</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减小安装难度。</t>
+    <rPh sb="0" eb="1">
+      <t>udit</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ih</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>pvu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>cwy</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4175,6 +4326,10 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Abadi MT Condensed Extra Bold"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -4202,7 +4357,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -4225,11 +4380,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4270,6 +4436,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4550,16 +4729,16 @@
   <dimension ref="A2:Z67"/>
   <sheetViews>
     <sheetView zoomScale="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:I2"/>
+      <selection pane="bottomRight" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5" style="4" customWidth="1"/>
     <col min="3" max="3" width="33.6640625" style="4" customWidth="1"/>
     <col min="4" max="4" width="33.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="13.5" style="4" bestFit="1" customWidth="1"/>
@@ -4595,7 +4774,9 @@
       <c r="I2" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="13"/>
+      <c r="J2" s="16" t="s">
+        <v>143</v>
+      </c>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
       <c r="M2" s="13"/>
@@ -5702,7 +5883,9 @@
       <c r="I45" s="1"/>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B46" s="1"/>
+      <c r="B46" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -5937,308 +6120,234 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I13"/>
+  <dimension ref="B1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="41.83203125" customWidth="1"/>
-    <col min="3" max="3" width="43.1640625" customWidth="1"/>
-    <col min="4" max="4" width="42.1640625" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="B2" s="14" t="s">
+    <row r="1" spans="2:10" ht="18" x14ac:dyDescent="0.2">
+      <c r="B1" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C1" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E1" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F1" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G1" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H1" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I1" s="18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="B3" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="E3" s="17" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="G3" s="17" t="s">
+      <c r="F4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I4" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="B4" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="17" t="s">
+    <row r="5" spans="2:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="B5" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17" t="s">
         <v>17</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="B5" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>36</v>
       </c>
       <c r="I5" s="17" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" ht="48" x14ac:dyDescent="0.2">
       <c r="B6" s="17" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="17"/>
+        <v>110</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>112</v>
+      </c>
       <c r="E6" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="17"/>
+        <v>124</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>17</v>
+      </c>
       <c r="H6" s="17" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="I6" s="17" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="5" t="s">
+    <row r="7" spans="2:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="B7" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="J7" s="20"/>
+    </row>
+    <row r="8" spans="2:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="B8" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5" t="s">
+      <c r="G8" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="B8" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="17"/>
+      <c r="H8" s="17" t="s">
+        <v>17</v>
+      </c>
       <c r="I8" s="17" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="64" x14ac:dyDescent="0.2">
-      <c r="B9" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="32" x14ac:dyDescent="0.2">
-      <c r="B11" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" s="1" t="s">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22" t="s">
         <v>115</v>
       </c>
     </row>

--- a/需求收集.xlsx
+++ b/需求收集.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="需求" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="151">
   <si>
     <t>校区下拉优化</t>
     <rPh sb="0" eb="1">
@@ -4123,40 +4123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>场地预订信息在电子班牌上进行显示。</t>
-    <rPh sb="0" eb="1">
-      <t>fnf</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>cby</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>wyth</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>d</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>jnb</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>gyt</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>thgf</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>h</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>fjtf</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>jof</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>完成人员</t>
     <rPh sb="0" eb="1">
       <t>pfd</t>
@@ -4270,6 +4236,90 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>cwy</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考勤机支持学员卡。</t>
+    <rPh sb="0" eb="1">
+      <t>fta</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>sm</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>fcrf</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ipkm</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>hhu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班牌</t>
+    <rPh sb="0" eb="1">
+      <t>gyt</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>thgf</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加场地预订信息、今日食谱、定制照片、班级通知在电子班牌上进行显示。</t>
+    <rPh sb="0" eb="1">
+      <t>fulk</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fnf</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>cby</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wyth</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>wyj</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>wyyu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>pgrm</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>jvth</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>gyxe</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>cet</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>d</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>jnb</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>gyt</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>thgf</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>h</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>fjtf</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>jof</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4726,13 +4776,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Z67"/>
+  <dimension ref="A2:Z65"/>
   <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J21" sqref="J21"/>
+      <selection pane="bottomRight" activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4775,7 +4825,7 @@
         <v>53</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -5214,12 +5264,14 @@
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>148</v>
+      </c>
       <c r="E19" s="1" t="s">
         <v>122</v>
       </c>
@@ -5233,7 +5285,7 @@
         <v>36</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="48" x14ac:dyDescent="0.2">
@@ -5882,15 +5934,21 @@
       </c>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:26" ht="32" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
+      <c r="E46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
@@ -6083,26 +6141,6 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:I27">
@@ -6122,9 +6160,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6183,7 +6221,7 @@
         <v>36</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
@@ -6216,7 +6254,7 @@
         <v>139</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>15</v>
@@ -6290,7 +6328,7 @@
         <v>46</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>15</v>
@@ -6311,7 +6349,7 @@
     </row>
     <row r="8" spans="2:10" ht="32" x14ac:dyDescent="0.2">
       <c r="B8" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>43</v>
@@ -6337,13 +6375,13 @@
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
       <c r="F9" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
@@ -6362,7 +6400,7 @@
   <dimension ref="B1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G3" sqref="G2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/需求收集.xlsx
+++ b/需求收集.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="需求" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="154">
   <si>
     <t>校区下拉优化</t>
     <rPh sb="0" eb="1">
@@ -4320,6 +4320,63 @@
     </rPh>
     <rPh sb="31" eb="32">
       <t>jof</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生卡批量解绑功能</t>
+    <rPh sb="0" eb="1">
+      <t>iptg</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hhu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>rxjg</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qex</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>alc</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家长卡批量解绑功能</t>
+    <rPh sb="0" eb="1">
+      <t>pet</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hhu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>rxjg</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qex</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>alc</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工卡批量解绑功能</t>
+    <rPh sb="0" eb="1">
+      <t>kma</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>hhu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>rxjg</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qex</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>alc</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4782,7 +4839,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H46" sqref="H46"/>
+      <selection pane="bottomRight" activeCell="G47" sqref="G47:G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5953,31 +6010,49 @@
       <c r="I46" s="1"/>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B47" s="1"/>
+      <c r="B47" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
+      <c r="E47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B48" s="1"/>
+      <c r="B48" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
+      <c r="E48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B49" s="1"/>
+      <c r="B49" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
+      <c r="E49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>

--- a/需求收集.xlsx
+++ b/需求收集.xlsx
@@ -4836,10 +4836,10 @@
   <dimension ref="A2:Z65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G47" sqref="G47:G49"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
